--- a/Assignments/excel/Roberts-BLS-Data.xlsx
+++ b/Assignments/excel/Roberts-BLS-Data.xlsx
@@ -13298,7 +13298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
